--- a/history/55_65/data_ticker_1703.xlsx
+++ b/history/55_65/data_ticker_1703.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavel.rostov\PycharmProjects\scrapyBotTrade\history\55_65\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798D0051-B880-4F78-9A38-F6C7FEE284D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522F0772-1D58-45DB-AE00-9414C7856A0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5775" yWindow="5655" windowWidth="27000" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="0" windowWidth="27000" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1161,12 +1161,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1175,20 +1169,18 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF948A54"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -1532,7 +1524,7 @@
   <dimension ref="A1:CR252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CQ4" sqref="CQ4"/>
+      <selection activeCell="CV11" sqref="CV11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -1579,10 +1571,10 @@
       </c>
     </row>
     <row r="2" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="B2" s="8">
+      <c r="B2" s="16">
         <v>44272</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="17"/>
       <c r="E2">
         <f>SUBTOTAL(  2,A:A)</f>
         <v>52</v>
@@ -1590,7 +1582,7 @@
       <c r="G2" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="8">
         <v>3</v>
       </c>
       <c r="I2" s="7">
@@ -1609,7 +1601,7 @@
       <c r="G3" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="9">
         <v>4</v>
       </c>
       <c r="I3" s="7">
@@ -1619,7 +1611,7 @@
       <c r="K3" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="10">
         <f>SUBTOTAL( 9,CR:CR)</f>
         <v>3303.4792427031898</v>
       </c>
@@ -1628,7 +1620,7 @@
       <c r="G4" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="11">
         <v>7</v>
       </c>
       <c r="I4" s="7">
@@ -1638,7 +1630,7 @@
       <c r="K4" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="12">
         <f>100%-(L2/L3)</f>
         <v>1.6848673357379607E-2</v>
       </c>
@@ -1647,7 +1639,7 @@
       <c r="G5" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="13">
         <v>14</v>
       </c>
       <c r="I5" s="7">
@@ -1656,10 +1648,10 @@
       </c>
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="G6" s="16">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17">
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
         <v>2</v>
       </c>
       <c r="I6" s="7">
@@ -18189,33 +18181,33 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="CP9:CP60">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
       <formula>1%</formula>
       <formula>1.5%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP9:CP60">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
       <formula>0.015</formula>
       <formula>0.02</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP9:CP60">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0.02</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP9:CP60">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0.005</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
       <formula>0.005</formula>
       <formula>0.01</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP9:CP60">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
